--- a/medicine/Enfance/Michael_Foreman_(illustrateur)/Michael_Foreman_(illustrateur).xlsx
+++ b/medicine/Enfance/Michael_Foreman_(illustrateur)/Michael_Foreman_(illustrateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Foreman (né le 21 mars 1938) est un auteur et illustrateur britannique, l'un des créateurs de livres pour enfants les plus connus et les plus prolifiques[1]. Il a remporté les médailles Kate Greenaway de 1982 et 1989 pour l'illustration de livres pour enfants britanniques et il a été cinq fois récompensé[2].
-Il a été nommé au Royaume-Uni en 1988 et à nouveau en 2010 pour le prix biennal international Prix Hans-Christian-Andersen, la plus haute distinction offerte aux créateurs de livres pour enfants[3], dans la Catégorie Illustration.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Foreman (né le 21 mars 1938) est un auteur et illustrateur britannique, l'un des créateurs de livres pour enfants les plus connus et les plus prolifiques. Il a remporté les médailles Kate Greenaway de 1982 et 1989 pour l'illustration de livres pour enfants britanniques et il a été cinq fois récompensé.
+Il a été nommé au Royaume-Uni en 1988 et à nouveau en 2010 pour le prix biennal international Prix Hans-Christian-Andersen, la plus haute distinction offerte aux créateurs de livres pour enfants, dans la Catégorie Illustration.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né et a grandi à Pakefield, près de Lowestoft, Suffolk, où sa mère tenait la boutique du village[4],[5]. Son père est décédé un mois avant sa naissance. Quand il avait trois ans, la maison familiale a été détruite dans un bombardement, mais il a survécu avec sa mère et ses deux frères aînés[6]. Il a étudié à la Lowestoft School of Art, puis à Londres au Royal College of Art[7], où il a remporté une bourse pour les États-Unis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né et a grandi à Pakefield, près de Lowestoft, Suffolk, où sa mère tenait la boutique du village,. Son père est décédé un mois avant sa naissance. Quand il avait trois ans, la maison familiale a été détruite dans un bombardement, mais il a survécu avec sa mère et ses deux frères aînés. Il a étudié à la Lowestoft School of Art, puis à Londres au Royal College of Art, où il a remporté une bourse pour les États-Unis.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Approche de l'illustration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Foreman a appris à répondre instantanément au texte en tant qu'étudiant en art. Après avoir dessiné pour les journaux et pour la police, dessiné des suspectes alors que les portraits-robots ne s'adressaient qu'aux hommes, il a acquis une précieuse expérience du dessin. Une bourse de voyage l'a emmené partout dans le monde, dessinant des paysages, de l'architecture et de la faune. Bien que nombre de ses livres présentent des aquarelles lumineuses, c'est le dessin qu'il considère comme essentiel : « Tout est dans le dessin et l'illustration. Il s'agit de créer un autre monde, crédible en soi. Je pense que j'ai eu beaucoup de chance d'avoir commencé une école d'art si jeune quand ils enseignaient l'art. C'était une formation rigoureuse - pas seulement de la peinture et du dessin d'après nature - mais des heures d'anatomie et de perspective. ... cela vous a vraiment appris à comprendre ce que vous regardiez."  Son but dans l'illustration est de rendre crédibles, réels les mondes créés : « Je continue d'essayer de rendre les choses plus réelles, non pas dans un sens photographique littéral, mais dans un sens émotionnel, racontant une histoire en capturant l'essence de la situation, en lui donnant un peu de sens." 
 </t>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>années 1960
-1961 Comic Alphabets: Their origin, development, nature (illustrateur) Routledge &amp; Kegan Paul  (ISBN 978-0-7100-1939-4), by Eric Partridge
+          <t>années 1960</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1961 Comic Alphabets: Their origin, development, nature (illustrateur) Routledge &amp; Kegan Paul  (ISBN 978-0-7100-1939-4), by Eric Partridge
 1961 The General (illustrateur) Routledge &amp; Kegan Paul, by Jane Charters
 1962 Poems by Children 1950–61 (illustrateur) Routledge &amp; Kegan Paul
 1963 The King Who Lived on Jelly (illustrateur) Routledge &amp; Kegan Paul
@@ -589,9 +610,43 @@
 1967 The Two Giants (author/illustrateur) Brockhampton Press
 1968 Let's Fight! and Other Russian Fables (illustrateur) Pantheon (U.S.)
 1968 The Great Sleigh Robbery (author/illustrateur) Hamish Hamilton
-1969 Essex Poems, 1963–67 (illustrateur) Routledge &amp; Kegan Paul
-années 1970
-1970 Adam's Balm (illustrateur) Bowmar (U.S.)
+1969 Essex Poems, 1963–67 (illustrateur) Routledge &amp; Kegan Paul</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michael_Foreman_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Foreman_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres choisies</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>années 1970</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1970 Adam's Balm (illustrateur) Bowmar (U.S.)
 1970 Horatio (author/illustrateur) Hamish Hamilton
 1970 The Birthday Unicorn (illustrateur) Gollancz
 1971 James and the Giant Peach (an adaptation) (illustrateur) Penguin
@@ -613,18 +668,52 @@
 1977 Tom Fobble's Day (illustrateur) Collins
 1978 Borrowed Feathers and Other Fables (illustrateur) Hamish Hamilton
 1978 Mickey's Kitchen Contest (illustrateur) Andersen Press
-1978 Popular Folk Tales (illustrateur) Gollancz, newly translated from Brothers Grimm by Brian Alderson —a Greenaway runner up[2]
+1978 Popular Folk Tales (illustrateur) Gollancz, newly translated from Brothers Grimm by Brian Alderson —a Greenaway runner up
 1978 The Aimer Gate (illustrateur) Collins
 1978 The Princess and the Golden Mane (illustrateur) Collins,
 1978 The Selfish Giant (illustrateur) Kaye &amp; Ward
 1979 Alan The Three Golden Heads of the Well (illustrateur) Collins
 1979 How to Catch a Ghost (illustrateur) Holt (U.S.)
 1979 The Golden Brothers (illustrateur) Collins
-1979 Winter's Tales (author) Benn
-années 1980
-1980 After Many a Summer (illustrateur) Folio Society
+1979 Winter's Tales (author) Benn</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michael_Foreman_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Foreman_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres choisies</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>années 1980</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1980 After Many a Summer (illustrateur) Folio Society
 1980 Alan Garner's Fairytales of Gold (illustrateur) Collins
-1980 City of Gold and Other Stories from the Old Testament (illustrateur) Gollancz, retold by Peter Dickinson, who won the Carnegie Medal[8] —a Greenaway runner up (Highly Commended)
+1980 City of Gold and Other Stories from the Old Testament (illustrateur) Gollancz, retold by Peter Dickinson, who won the Carnegie Medal —a Greenaway runner up (Highly Commended)
 1980 The Faithful Bull (illustrateur) Hamish Hamilton
 1980 The Pig Plantagenet (illustrateur) Hutchinson
 1980 The Tiger Who Lost his Stripes (illustrateur) Andersen Press
@@ -634,8 +723,8 @@
 1981 The Nightingale and the Rose (illustrateur) Kaye &amp; Ward
 1981 Trick a Tracker (author/illustrateur) Gollancz
 1982 Land of Dreams (author/illustrateur) Andersen Press
-1982 Long Neck and Thunder Foot (illustrateur) Viking Kestrel, by Helen Piers —joint winner of the Kate Greenaway Medal for British children's book illustration[9]
-1982 Sleeping Beauty and other favourite fairy tales (illustrateur) Gollancz, selected and translated from Perrault and Le Prince de Beaumont by Angela Carter —joint winner of the Greenaway Medal and winner of the Kurt Maschler Award[10] for integration of writing et illustration in a British children's book[11]
+1982 Long Neck and Thunder Foot (illustrateur) Viking Kestrel, by Helen Piers —joint winner of the Kate Greenaway Medal for British children's book illustration
+1982 Sleeping Beauty and other favourite fairy tales (illustrateur) Gollancz, selected and translated from Perrault and Le Prince de Beaumont by Angela Carter —joint winner of the Greenaway Medal and winner of the Kurt Maschler Award for integration of writing et illustration in a British children's book
 1982 The Crab That Played with the Sea (illustrateur) Macmillan
 1982 The Magic Mouse and the Millionaire (illustrateur) Hamish Hamilton
 1983 A Christmas Carol: A Ghost Story of Christmas (illustrateur) Gollancz
@@ -675,9 +764,43 @@
 1989 Land of the Long White Cloud (illustrateur) Pavilion
 1989 Once Upon a Planet (illustrateur) Puffin
 1989 The Sand Horse (illustrateur) Andersen Press
-1989 War Boy: a country childhood (author/illustrateur) Pavilion —memoir, winner of the Kate Greenaway Medal, —also entitled War Boy: a wartime childhood[12]
-années 1990
-1990 Michael Foreman (author/illustrateur) Beetles
+1989 War Boy: a country childhood (author/illustrateur) Pavilion —memoir, winner of the Kate Greenaway Medal, —also entitled War Boy: a wartime childhood</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michael_Foreman_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Foreman_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres choisies</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>années 1990</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1990 Michael Foreman (author/illustrateur) Beetles
 1990 Michael Foreman's Mother Goose (illustrateur) Walker
 1990 Michael Foreman's World of Fairy Tales (illustrateur) Pavilion
 1990 One World (author/illustrateur) Andersen Press
@@ -737,9 +860,43 @@
 1999 The Rainbow Bear (illustrateur) Doubleday
 1999 The Shining Princess and Other Japanese Legends (illustrateur) Andersen Press
 1999 The Story of Millennia the Angel (illustrateur) Orchard
-1999 The Wonderful Wizard of Oz (illustrateur) Pavilion
-années 2000
-2000 Billy the Kid (illustrateur) Pavilion
+1999 The Wonderful Wizard of Oz (illustrateur) Pavilion</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michael_Foreman_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Foreman_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres choisies</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>années 2000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2000 Billy the Kid (illustrateur) Pavilion
 2000 Cat in the Manger (author/illustrateur) Andersen Press
 2000 Memories of Childhood (author/illustrateur) Pavilion
 2000 Rock-a-doodle-doo! (author/illustrateur) Andersen Press
@@ -790,39 +947,41 @@
 2009 The Littlest Dinosaur's Big Adventure, author/illustrateur, Walker
 2010 Why the Animals Came to Town, author/illustrateur, Walker
 2015 The Tortoise and the Soldier, author/illustrateur, Henry Holt
-2021 Noa and the Little Elephant, author/illustrateur, HarperCollins Children's Books in association with Tusk Trust[13]</t>
+2021 Noa and the Little Elephant, author/illustrateur, HarperCollins Children's Books in association with Tusk Trust</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Michael_Foreman_(illustrateur)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michael_Foreman_(illustrateur)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2010 : Sélection Prix Hans-Christian-Andersen[3], catégorie Illustrateur
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2010 : Sélection Prix Hans-Christian-Andersen, catégorie Illustrateur
 1997 Nestlé Smarties Book Prize (Prix d'argent)
-1996 : (international) « Honour List »[14] de l'IBBY pour War Game
+1996 : (international) « Honour List » de l'IBBY pour War Game
 1993 Prix du livre Nestlé Smarties (Prix d'or)
 1989 Médaille Kate Greenaway
 1988 : Sélection Prix Hans-Christian-Andersen, catégorie Illustrateur[réf. souhaitée]
